--- a/DataCollection/NumpadExperimentData.xlsx
+++ b/DataCollection/NumpadExperimentData.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywysopal/ResponsiveAR/DataCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7ACDB4D8-1C30-E143-B382-78F1DB0AF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA059764-8D1C-814A-9FF3-2189585265F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38080" yWindow="3160" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumpadExperimentData" sheetId="1" r:id="rId1"/>
-    <sheet name="Time Bar Chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Time Box and Whisker" sheetId="3" r:id="rId3"/>
-    <sheet name="DistData" sheetId="4" r:id="rId4"/>
-    <sheet name="Dist Bar Chart" sheetId="6" r:id="rId5"/>
-    <sheet name="Dist Box and Whisker" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Time Bar Chart" sheetId="2" r:id="rId3"/>
+    <sheet name="Time Box and Whisker" sheetId="3" r:id="rId4"/>
+    <sheet name="DistData" sheetId="4" r:id="rId5"/>
+    <sheet name="Dist Bar Chart" sheetId="6" r:id="rId6"/>
+    <sheet name="Dist Box and Whisker" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">NumpadExperimentData!$D$23:$D$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">NumpadExperimentData!$D$2:$D$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">NumpadExperimentData!$D$25:$D$46</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">NumpadExperimentData!$D$2:$D$24</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">DistData!$D$23:$D$43</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">DistData!$D$2:$D$22</definedName>
   </definedNames>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="181" uniqueCount="11">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="198" uniqueCount="18">
   <si>
     <t>userID</t>
   </si>
@@ -78,7 +83,28 @@
     <t>Avg Ratio</t>
   </si>
   <si>
-    <t>T-Test</t>
+    <t>Avg Dist R</t>
+  </si>
+  <si>
+    <t>Avg Dist S</t>
+  </si>
+  <si>
+    <t>STD Dist R</t>
+  </si>
+  <si>
+    <t>STD Dist S</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDV</t>
+  </si>
+  <si>
+    <t>STDERR</t>
+  </si>
+  <si>
+    <t>95%CI</t>
   </si>
 </sst>
 </file>
@@ -650,6 +676,1021 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NumpadExperimentData!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>32460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103852</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>172841</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>214588</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>272824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumpadExperimentData!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.56904029596269901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56954602307601598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52148698143275696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45949190378791399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58885138856310404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51209830186657701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51512409479749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60731350265812101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.547674379137295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56637439709604698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50771530507644402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52990717674325205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60779506380180104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57941573269327495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55161490519274003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55123579327490402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.564927395542271</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60824988026473004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.479307224839362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69013460147322503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65375649640598599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65392073259834804</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.529678634413419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD19-C54E-92FE-A52318F2B73A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1053925471"/>
+        <c:axId val="1045737119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1053925471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045737119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1045737119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053925471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$5:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.1744603408303625E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6322766690040892E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$5:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.1744603408303625E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6322766690040892E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Avg Dist R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Dist S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.56368087872599026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56603982165030253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2324-3042-927D-3BB90D33E26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644530335"/>
+        <c:axId val="644545167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644530335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644545167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644545167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644530335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$E$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.3768935978173931E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6322766690040892E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$E$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.3768935978173931E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6322766690040892E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>STD Dist R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>STD Dist S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3407027539208725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3257132961190701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6618-0B44-85CF-F39ED1509DD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644530335"/>
+        <c:axId val="644545167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644530335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644545167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644545167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644530335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0%">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -696,58 +1737,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32470</c:v>
+                  <c:v>32460</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35539</c:v>
+                  <c:v>35529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39686</c:v>
+                  <c:v>39441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47270</c:v>
+                  <c:v>39671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48342</c:v>
+                  <c:v>47251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49190</c:v>
+                  <c:v>48327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50281</c:v>
+                  <c:v>49176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50831</c:v>
+                  <c:v>50261</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56893</c:v>
+                  <c:v>50822</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62061</c:v>
+                  <c:v>56871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63161</c:v>
+                  <c:v>62051</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>63151</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>63330</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>65121</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>71303</c:v>
+                  <c:v>65100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87952</c:v>
+                  <c:v>71281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88722</c:v>
+                  <c:v>78971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100381</c:v>
+                  <c:v>87942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103872</c:v>
+                  <c:v>88708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103852</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>172841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,64 +1831,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25790</c:v>
+                  <c:v>214588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28481</c:v>
+                  <c:v>272824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33920</c:v>
+                  <c:v>25770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35681</c:v>
+                  <c:v>28472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37981</c:v>
+                  <c:v>33905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41770</c:v>
+                  <c:v>35671</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>37961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>44332</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44618</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45181</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>48031</c:v>
+                  <c:v>44600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54280</c:v>
+                  <c:v>45161</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>48010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54260</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>57071</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>59649</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>61130</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>62552</c:v>
+                  <c:v>59640</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63271</c:v>
+                  <c:v>61129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65571</c:v>
+                  <c:v>62532</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67619</c:v>
+                  <c:v>63261</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69931</c:v>
+                  <c:v>65561</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70791</c:v>
+                  <c:v>67589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,7 +2110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1424,6 +2477,226 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1091513551"/>
+        <c:axId val="967426111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1091513551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967426111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="967426111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091513551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1998,7 +3271,603 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2522,7 +4391,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3037,7 +4906,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3540,7 +5409,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4055,7 +5924,645 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF88C78-3893-DEF0-3158-A948812A7969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FEC824-D38C-8A41-B038-40FE6B1E6B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589F0ECE-0096-C645-A4FC-F75886766E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4098,7 +6605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4181,7 +6688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4224,7 +6731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4305,6 +6812,115 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0479A279-C6ED-EE40-D20E-1A3D513E17F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Experiment Data --&gt;"/>
+      <sheetName val="ArticleExperimentData"/>
+      <sheetName val="Charts --&gt;"/>
+      <sheetName val="Time Bar Chart"/>
+      <sheetName val="Time Box and Whisker"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Demographic Data --&gt;"/>
+      <sheetName val="AR Pre-study Survey"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Avg Dist R</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Avg Dist S</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.6262732842196661</v>
+          </cell>
+          <cell r="C3">
+            <v>0.61211362547804815</v>
+          </cell>
+          <cell r="E3">
+            <v>0.58539193117656207</v>
+          </cell>
+          <cell r="F3">
+            <v>0.5849638598610265</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>9.2617466269498301E-3</v>
+          </cell>
+          <cell r="C5">
+            <v>1.2993644125138816E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>1.2528118565086507E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>1.2694899728677447E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4604,15 +7220,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4635,7 +7251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
@@ -4646,22 +7262,19 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>32470</v>
+        <v>32460</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.569044979281353</v>
+        <v>0.56904029596269901</v>
       </c>
       <c r="G2">
-        <v>1.21738588626449</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2172863612009099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>83</v>
       </c>
@@ -4672,25 +7285,21 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>35539</v>
+        <v>35529</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.56954505032705005</v>
+        <v>0.56954602307601598</v>
       </c>
       <c r="G3">
-        <v>1.28573707845241</v>
-      </c>
-      <c r="I3">
-        <f>_xlfn.T.TEST(D2:D22,D23:D43,2,2)</f>
-        <v>6.2338982168748322E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2858255015244899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -4699,21 +7308,21 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>39686</v>
+        <v>39441</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.45950108198097001</v>
+        <v>0.52148698143275696</v>
       </c>
       <c r="G4">
-        <v>1.5663156332325201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2940501406336899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -4722,21 +7331,21 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>47270</v>
+        <v>39671</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.58885151673157998</v>
+        <v>0.45949190378791399</v>
       </c>
       <c r="G5">
-        <v>1.25468175793581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5664780024768501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4745,21 +7354,21 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>48342</v>
+        <v>47251</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.51209840790962202</v>
+        <v>0.58885138856310404</v>
       </c>
       <c r="G6">
-        <v>1.3806030110793801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2546972348623899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -4768,21 +7377,21 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>49190</v>
+        <v>48327</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.51511488244692505</v>
+        <v>0.51209830186657701</v>
       </c>
       <c r="G7">
-        <v>1.41809486190918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3806128145323699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -4791,21 +7400,21 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>50281</v>
+        <v>49176</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.60731343191136</v>
+        <v>0.51512409479749</v>
       </c>
       <c r="G8">
-        <v>1.1756221776176601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4181206108945601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -4814,21 +7423,21 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>50831</v>
+        <v>50261</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.54767349904365903</v>
+        <v>0.60731350265812101</v>
       </c>
       <c r="G9">
-        <v>1.4112097275394899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.1756270245482801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -4837,21 +7446,21 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>56893</v>
+        <v>50822</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.56636358363719896</v>
+        <v>0.547674379137295</v>
       </c>
       <c r="G10">
-        <v>1.3394240551741201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4112801672764299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4860,21 +7469,21 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>62061</v>
+        <v>56871</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.50771493961630398</v>
+        <v>0.56637439709604698</v>
       </c>
       <c r="G11">
-        <v>1.5290839522727999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3394515926580299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -4883,21 +7492,21 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>63161</v>
+        <v>62051</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.52990980706310697</v>
+        <v>0.50771530507644402</v>
       </c>
       <c r="G12">
-        <v>1.3099743832005399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5290434183030299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -4906,21 +7515,21 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>63330</v>
+        <v>63151</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.60779506380180104</v>
+        <v>0.52990717674325205</v>
       </c>
       <c r="G13">
-        <v>1.21348220772367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.30992143369619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -4929,21 +7538,21 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>65121</v>
+        <v>63330</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.57941259606609596</v>
+        <v>0.60779506380180104</v>
       </c>
       <c r="G14">
-        <v>1.2214816886253701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.21348220772367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -4952,21 +7561,21 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>71303</v>
+        <v>65100</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.55161715175023995</v>
+        <v>0.57941573269327495</v>
       </c>
       <c r="G15">
-        <v>1.49310962263509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.22145656384262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -4975,21 +7584,21 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>87952</v>
+        <v>71281</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.56492939788007601</v>
+        <v>0.55161490519274003</v>
       </c>
       <c r="G16">
-        <v>1.14211841602158</v>
+        <v>1.4931767496385899</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -4998,21 +7607,21 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>88722</v>
+        <v>78971</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.60824887334866695</v>
+        <v>0.55123579327490402</v>
       </c>
       <c r="G17">
-        <v>1.30267072839816</v>
+        <v>1.4805017349810401</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -5021,21 +7630,21 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>100381</v>
+        <v>87942</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>0.47930765852340901</v>
+        <v>0.564927395542271</v>
       </c>
       <c r="G18">
-        <v>1.60726923174068</v>
+        <v>1.14207260808151</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -5044,21 +7653,21 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>103872</v>
+        <v>88708</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.69014287245237904</v>
+        <v>0.60824988026473004</v>
       </c>
       <c r="G19">
-        <v>0.972091370499788</v>
+        <v>1.3026627895629801</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -5066,19 +7675,22 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
+      <c r="D20">
+        <v>100361</v>
+      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.65375649640598599</v>
+        <v>0.479307224839362</v>
       </c>
       <c r="G20">
-        <v>1.2653583300320901</v>
+        <v>1.60728812819501</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -5086,19 +7698,22 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
+      <c r="D21">
+        <v>103852</v>
+      </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.65391869108973899</v>
+        <v>0.69013460147322503</v>
       </c>
       <c r="G21">
-        <v>1.30803021907793</v>
+        <v>0.97208950182350695</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -5106,65 +7721,68 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
+      <c r="D22">
+        <v>172841</v>
+      </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.52967738802548203</v>
+        <v>0.65375649640598599</v>
       </c>
       <c r="G22">
-        <v>1.6476037790839899</v>
+        <v>1.2653583300320901</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>25790</v>
+        <v>214588</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0.54982351503161597</v>
+        <v>0.65392073259834804</v>
       </c>
       <c r="G23">
-        <v>1.2920240628703299</v>
+        <v>1.30805889142329</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24">
-        <v>28481</v>
+        <v>272824</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0.60397246771299895</v>
+        <v>0.529678634413419</v>
       </c>
       <c r="G24">
-        <v>1.1907160708875499</v>
+        <v>1.6476215322685399</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -5173,21 +7791,21 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>33920</v>
+        <v>25770</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.51578176602713399</v>
+        <v>0.54982253174557005</v>
       </c>
       <c r="G25">
-        <v>1.3921781050253801</v>
+        <v>1.2920169240736601</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -5196,21 +7814,21 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>35681</v>
+        <v>28472</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>0.51992119680606297</v>
+        <v>0.60397402830161195</v>
       </c>
       <c r="G26">
-        <v>1.4190713673561699</v>
+        <v>1.1906175427854999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -5219,21 +7837,21 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>37981</v>
+        <v>33905</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>0.48478901057729201</v>
+        <v>0.51578616910894504</v>
       </c>
       <c r="G27">
-        <v>1.42667770128399</v>
+        <v>1.39221689375326</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -5242,21 +7860,21 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>41770</v>
+        <v>35671</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.58292865058428001</v>
+        <v>0.51992797776257105</v>
       </c>
       <c r="G28">
-        <v>1.16269159746233</v>
+        <v>1.4191581613341699</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -5265,21 +7883,21 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>44332</v>
+        <v>37961</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>0.527897796274164</v>
+        <v>0.484786520761818</v>
       </c>
       <c r="G29">
-        <v>1.43337973448067</v>
+        <v>1.4266582624593001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -5288,21 +7906,21 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>44618</v>
+        <v>41760</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.50630140902246301</v>
+        <v>0.58293217752751703</v>
       </c>
       <c r="G30">
-        <v>1.39453197328067</v>
+        <v>1.1627382264811299</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -5311,21 +7929,21 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>45181</v>
+        <v>44332</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>0.53022235973916798</v>
+        <v>0.527897796274164</v>
       </c>
       <c r="G31">
-        <v>1.46390361930376</v>
+        <v>1.43337973448067</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -5334,21 +7952,21 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>48031</v>
+        <v>44600</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>0.58752092798787703</v>
+        <v>0.50630214549767905</v>
       </c>
       <c r="G32">
-        <v>1.12252318515772</v>
+        <v>1.39448219969573</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -5357,21 +7975,21 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>54280</v>
+        <v>45161</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.59602044652799802</v>
+        <v>0.53022041055073399</v>
       </c>
       <c r="G33">
-        <v>1.1223712439495599</v>
+        <v>1.4639461425795499</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -5380,21 +7998,21 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>57071</v>
+        <v>48010</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>0.59273313489711399</v>
+        <v>0.58753028410678998</v>
       </c>
       <c r="G34">
-        <v>1.30736782419523</v>
+        <v>1.12244374417412</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -5403,21 +8021,21 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>59649</v>
+        <v>54260</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.62445808959372495</v>
+        <v>0.59602058896590204</v>
       </c>
       <c r="G35">
-        <v>1.28388335987741</v>
+        <v>1.12233607405545</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -5426,21 +8044,21 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>61130</v>
+        <v>57071</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>0.51072297010200296</v>
+        <v>0.59273313489711399</v>
       </c>
       <c r="G36">
-        <v>1.5112613423958099</v>
+        <v>1.30736782419523</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -5449,21 +8067,21 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>62552</v>
+        <v>59640</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0.44249786480625503</v>
+        <v>0.62443745545685403</v>
       </c>
       <c r="G37">
-        <v>1.6151603718235299</v>
+        <v>1.28396806822017</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -5472,21 +8090,21 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>63271</v>
+        <v>61129</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0.85209091733896403</v>
+        <v>0.51072291373298895</v>
       </c>
       <c r="G38">
-        <v>0.95744209019047999</v>
+        <v>1.5112685660310501</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -5495,21 +8113,21 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>65571</v>
+        <v>62532</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>0.56607240512847101</v>
+        <v>0.44249774256472102</v>
       </c>
       <c r="G39">
-        <v>1.2710358725903601</v>
+        <v>1.61515595227093</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -5518,21 +8136,21 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>67619</v>
+        <v>63261</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0.65286179240515496</v>
+        <v>0.85207220444768295</v>
       </c>
       <c r="G40">
-        <v>1.1316971997243399</v>
+        <v>0.95744684144796799</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -5541,21 +8159,21 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>69931</v>
+        <v>65561</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>0.50891304414246696</v>
+        <v>0.56606748424081299</v>
       </c>
       <c r="G41">
-        <v>1.59514224212296</v>
+        <v>1.2710003118012401</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -5564,21 +8182,21 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>70791</v>
+        <v>67589</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>0.564631848840772</v>
+        <v>0.65288315076426395</v>
       </c>
       <c r="G42">
-        <v>1.1762656579506201</v>
+        <v>1.1315958060545399</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -5586,22 +8204,223 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
+      <c r="D43">
+        <v>69911</v>
+      </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>0.59474984796688701</v>
+        <v>0.50891680776852699</v>
       </c>
       <c r="G43">
-        <v>1.4315761794539399</v>
+        <v>1.5951842600686901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>70781</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0.56463013336017498</v>
+      </c>
+      <c r="G44">
+        <v>1.1762113867494099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>81372</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>0.53796459077421799</v>
+      </c>
+      <c r="G45">
+        <v>1.46492946336702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>133823</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0.59474982769599505</v>
+      </c>
+      <c r="G46">
+        <v>1.4315701285407501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5447D386-9D58-1544-9ED5-9EAA43A625C2}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(NumpadExperimentData!F2:F24)</f>
+        <v>0.56368087872599026</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(NumpadExperimentData!F25:F46)</f>
+        <v>0.56603982165030253</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(NumpadExperimentData!G2:G24)</f>
+        <v>1.3407027539208725</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(NumpadExperimentData!G25:G46)</f>
+        <v>1.3257132961190701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f>STDEV(NumpadExperimentData!F2:F24)</f>
+        <v>5.6325139254348525E-2</v>
+      </c>
+      <c r="C4">
+        <f>STDEV(NumpadExperimentData!G25:G46)</f>
+        <v>0.17036887732335732</v>
+      </c>
+      <c r="E4">
+        <f>STDEV(NumpadExperimentData!G2:G24)</f>
+        <v>0.16195012767285558</v>
+      </c>
+      <c r="F4">
+        <f>STDEV(NumpadExperimentData!G25:G46)</f>
+        <v>0.17036887732335732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>B4/SQRT(COUNT(NumpadExperimentData!F2:F24))</f>
+        <v>1.1744603408303625E-2</v>
+      </c>
+      <c r="C5">
+        <f>C4/SQRT(COUNT(NumpadExperimentData!F25:F46))</f>
+        <v>3.6322766690040892E-2</v>
+      </c>
+      <c r="E5">
+        <f>E4/SQRT(COUNT(NumpadExperimentData!G2:G24))</f>
+        <v>3.3768935978173931E-2</v>
+      </c>
+      <c r="F5">
+        <f>F4/SQRT(COUNT(NumpadExperimentData!G25:G46))</f>
+        <v>3.6322766690040892E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>1.96*B5</f>
+        <v>2.3019422680275105E-2</v>
+      </c>
+      <c r="C6">
+        <f>1.96*C5</f>
+        <v>7.1192622712480141E-2</v>
+      </c>
+      <c r="E6">
+        <f>1.96*E5</f>
+        <v>6.6187114517220896E-2</v>
+      </c>
+      <c r="F6">
+        <f>1.96*F5</f>
+        <v>7.1192622712480141E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6134C7-B4D1-0C4D-8CF3-703613AE22DA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5616,11 +8435,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045C1B63-5165-834B-BE0E-60C43BF88ADF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5629,7 +8450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C43A59-D801-4445-B2EB-73619DA118E7}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -6379,7 +9200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A1EF76-2E71-3A4F-A5A7-48CC7A45A25B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6394,7 +9215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697B6D70-C83B-0849-8D8D-44E155E6AF6E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6407,4 +9228,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0C209-B4E7-3048-9AB6-893D9EFCA0A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>